--- a/Table.xlsx
+++ b/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpar\source\repos\MultiShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BA7C83-6B96-4F8F-A001-B84FB3A54E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF51023-E54C-46AF-90D3-2A391C8AD6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4E492556-4A09-4A12-A1B5-629AD5EBCA95}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{4E492556-4A09-4A12-A1B5-629AD5EBCA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>ProductSize</t>
   </si>
@@ -350,13 +350,34 @@
   </si>
   <si>
     <t>Lenovo A20 Laptop</t>
+  </si>
+  <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Siyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t>Sarı</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Ürünlerdeki amount farklı bir tabloda Ürün Özellikleri ile beraber olacak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,13 +395,26 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -421,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -445,6 +479,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED76393-2373-4CB3-991B-BB201027F72D}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1286,7 @@
     <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1271,7 +1309,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
@@ -1305,7 +1343,7 @@
       <c r="N2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="11" t="s">
         <v>51</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -1313,7 +1351,7 @@
       </c>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1347,7 +1385,7 @@
       <c r="N3" s="6">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="11">
         <v>100</v>
       </c>
       <c r="P3" s="6">
@@ -1355,7 +1393,7 @@
       </c>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1389,7 +1427,7 @@
       <c r="N4" s="6">
         <v>3</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="11">
         <v>20</v>
       </c>
       <c r="P4" s="6">
@@ -1397,7 +1435,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1431,7 +1469,7 @@
       <c r="N5" s="6">
         <v>2</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="11">
         <v>20</v>
       </c>
       <c r="P5" s="6">
@@ -1439,7 +1477,7 @@
       </c>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1473,7 +1511,7 @@
       <c r="N6" s="6">
         <v>4</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="11">
         <v>10</v>
       </c>
       <c r="P6" s="6">
@@ -1481,7 +1519,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1515,7 +1553,7 @@
       <c r="N7" s="6">
         <v>4</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="11">
         <v>10</v>
       </c>
       <c r="P7" s="6">
@@ -1523,7 +1561,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1557,7 +1595,7 @@
       <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="11">
         <v>5</v>
       </c>
       <c r="P8" s="6">
@@ -1565,7 +1603,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1599,7 +1637,7 @@
       <c r="N9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="11">
         <v>10</v>
       </c>
       <c r="P9" s="6">
@@ -1607,7 +1645,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1632,7 +1670,7 @@
       <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="11">
         <v>5</v>
       </c>
       <c r="P10" s="6">
@@ -1640,7 +1678,7 @@
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E11" s="6">
         <v>2</v>
       </c>
@@ -1651,7 +1689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E12" s="6">
         <v>6</v>
       </c>
@@ -1661,8 +1699,20 @@
       <c r="G12" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E13" s="6">
         <v>7</v>
       </c>
@@ -1672,8 +1722,20 @@
       <c r="G13" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E14" s="6">
         <v>1</v>
       </c>
@@ -1683,8 +1745,20 @@
       <c r="G14" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E15" s="6">
         <v>2</v>
       </c>
@@ -1694,8 +1768,30 @@
       <c r="G15" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E16" s="6">
         <v>6</v>
       </c>
@@ -1705,8 +1801,32 @@
       <c r="G16" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E17" s="6">
         <v>7</v>
       </c>
@@ -1716,8 +1836,32 @@
       <c r="G17" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E18" s="6">
         <v>1</v>
       </c>
@@ -1727,8 +1871,20 @@
       <c r="G18" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E19" s="6">
         <v>2</v>
       </c>
@@ -1738,8 +1894,20 @@
       <c r="G19" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E20" s="6">
         <v>6</v>
       </c>
@@ -1750,7 +1918,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E21" s="6">
         <v>7</v>
       </c>
@@ -1762,10 +1930,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="Q15:X15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
